--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Il1rapl1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.855689333333334</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H2">
         <v>11.567068</v>
       </c>
       <c r="I2">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="J2">
-        <v>0.1340401150840085</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1303396666666667</v>
+        <v>0.03825666666666667</v>
       </c>
       <c r="N2">
-        <v>0.391019</v>
+        <v>0.11477</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4331352014340976</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4331352014340976</v>
       </c>
       <c r="Q2">
-        <v>0.5025492624768889</v>
+        <v>0.1475058215955555</v>
       </c>
       <c r="R2">
-        <v>4.522943362292001</v>
+        <v>1.32755239436</v>
       </c>
       <c r="S2">
-        <v>0.1340401150840085</v>
+        <v>0.06554689341907069</v>
       </c>
       <c r="T2">
-        <v>0.1340401150840085</v>
+        <v>0.0655468934190707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -596,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.903429</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H3">
-        <v>8.710287000000001</v>
+        <v>11.567068</v>
       </c>
       <c r="I3">
-        <v>0.1009355068972313</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="J3">
-        <v>0.1009355068972313</v>
+        <v>0.1513312545414155</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1303396666666667</v>
+        <v>0.05006833333333333</v>
       </c>
       <c r="N3">
-        <v>0.391019</v>
+        <v>0.150205</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5668647985659024</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5668647985659024</v>
       </c>
       <c r="Q3">
-        <v>0.3784319680503334</v>
+        <v>0.1930479387711111</v>
       </c>
       <c r="R3">
-        <v>3.405887712453</v>
+        <v>1.73743144894</v>
       </c>
       <c r="S3">
-        <v>0.1009355068972313</v>
+        <v>0.08578436112234479</v>
       </c>
       <c r="T3">
-        <v>0.1009355068972313</v>
+        <v>0.0857843611223448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.360192666666666</v>
+      </c>
+      <c r="H4">
+        <v>16.080578</v>
+      </c>
+      <c r="I4">
+        <v>0.2103812342497758</v>
+      </c>
+      <c r="J4">
+        <v>0.2103812342497758</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.03825666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.11477</v>
+      </c>
+      <c r="O4">
+        <v>0.4331352014340976</v>
+      </c>
+      <c r="P4">
+        <v>0.4331352014340976</v>
+      </c>
+      <c r="Q4">
+        <v>0.2050631041177778</v>
+      </c>
+      <c r="R4">
+        <v>1.84556793706</v>
+      </c>
+      <c r="S4">
+        <v>0.09112351827473072</v>
+      </c>
+      <c r="T4">
+        <v>0.09112351827473074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>22.00607133333333</v>
-      </c>
-      <c r="H4">
-        <v>66.018214</v>
-      </c>
-      <c r="I4">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="J4">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1303396666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.391019</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2.868264002229556</v>
-      </c>
-      <c r="R4">
-        <v>25.814376020066</v>
-      </c>
-      <c r="S4">
-        <v>0.7650243780187601</v>
-      </c>
-      <c r="T4">
-        <v>0.7650243780187601</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.360192666666666</v>
+      </c>
+      <c r="H5">
+        <v>16.080578</v>
+      </c>
+      <c r="I5">
+        <v>0.2103812342497758</v>
+      </c>
+      <c r="J5">
+        <v>0.2103812342497758</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.05006833333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.150205</v>
+      </c>
+      <c r="O5">
+        <v>0.5668647985659024</v>
+      </c>
+      <c r="P5">
+        <v>0.5668647985659024</v>
+      </c>
+      <c r="Q5">
+        <v>0.2683759131655555</v>
+      </c>
+      <c r="R5">
+        <v>2.41538321849</v>
+      </c>
+      <c r="S5">
+        <v>0.1192577159750451</v>
+      </c>
+      <c r="T5">
+        <v>0.1192577159750451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>16.26259133333333</v>
+      </c>
+      <c r="H6">
+        <v>48.787774</v>
+      </c>
+      <c r="I6">
+        <v>0.6382875112088087</v>
+      </c>
+      <c r="J6">
+        <v>0.6382875112088088</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03825666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.11477</v>
+      </c>
+      <c r="O6">
+        <v>0.4331352014340976</v>
+      </c>
+      <c r="P6">
+        <v>0.4331352014340976</v>
+      </c>
+      <c r="Q6">
+        <v>0.6221525357755555</v>
+      </c>
+      <c r="R6">
+        <v>5.599372821979999</v>
+      </c>
+      <c r="S6">
+        <v>0.2764647897402962</v>
+      </c>
+      <c r="T6">
+        <v>0.2764647897402963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>16.26259133333333</v>
+      </c>
+      <c r="H7">
+        <v>48.787774</v>
+      </c>
+      <c r="I7">
+        <v>0.6382875112088087</v>
+      </c>
+      <c r="J7">
+        <v>0.6382875112088088</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.05006833333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.150205</v>
+      </c>
+      <c r="O7">
+        <v>0.5668647985659024</v>
+      </c>
+      <c r="P7">
+        <v>0.5668647985659024</v>
+      </c>
+      <c r="Q7">
+        <v>0.8142408437411109</v>
+      </c>
+      <c r="R7">
+        <v>7.328167593669999</v>
+      </c>
+      <c r="S7">
+        <v>0.3618227214685125</v>
+      </c>
+      <c r="T7">
+        <v>0.3618227214685126</v>
       </c>
     </row>
   </sheetData>
